--- a/medicine/Sexualité et sexologie/Electric_Blue/Electric_Blue.xlsx
+++ b/medicine/Sexualité et sexologie/Electric_Blue/Electric_Blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Electric Blue est une série télévisée érotique qui a été diffusée principalement sur la chaîne Playboy TV dans les années 1980 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses stars du porno ont joué dans cette série, dont Ginger Lynn, Christy Canyon, Sasha Gabor, Traci Lords, Jacqueline Lorains, Blake Palmer, Janey Robbins, Rick Savage, Long Dong Silver, Jay Serling, Laurie Smith, Heather Wayne ou Jessica Wylde.
 La série a commencé à Londres sous la direction de Paul Raymond, connu pour ses magazines Men Only et Club International.
